--- a/bin/com/cyclos/datatable/Plan.xlsx
+++ b/bin/com/cyclos/datatable/Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharathi.ramapatnam\Documents\PageFactory_Projects\JunitProject\src\dataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharathi.ramapatnam\Documents\PageFactory_Projects\JunitProject\src\com\cyclos\datatable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="TestCases" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Plan!$B$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Plan!$C$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
-  <si>
-    <t>ProjectName:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>ApplicationUnderTest:</t>
   </si>
   <si>
-    <t>Authour:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
@@ -47,15 +41,6 @@
   </si>
   <si>
     <t>Bharathi Ramapatnam</t>
-  </si>
-  <si>
-    <t>one set of TestCases to run in Chrome,Firefox and Ie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runmode of the tests are controlled through Excel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automate few testcases through Seleniumebdriver </t>
   </si>
   <si>
     <t xml:space="preserve">SeleniumWebdriver - 2.44
@@ -77,15 +62,9 @@
     <t>Generate/Email Reports</t>
   </si>
   <si>
-    <t>Impliment simple and resuable Framework</t>
-  </si>
-  <si>
     <t>Parameterise  tests though excel</t>
   </si>
   <si>
-    <t>Compile tests to run throuh Ant/cmd</t>
-  </si>
-  <si>
     <t>Create New Java Project in Eclipse</t>
   </si>
   <si>
@@ -147,9 +126,6 @@
   </si>
   <si>
     <t>introduce webdriver implicit waits/pageload</t>
-  </si>
-  <si>
-    <t>Cyclos.org is an Opensource online banking application. This site has three user interface as demo user, demoUSer2, demoUser3</t>
   </si>
   <si>
     <t xml:space="preserve">Create reusable Functions:
@@ -159,33 +135,12 @@
     <t>Done</t>
   </si>
   <si>
-    <t>NotDone</t>
-  </si>
-  <si>
     <t>Introduce log4j properties file in config package</t>
   </si>
   <si>
     <t>Introduce try catch block for error reporting</t>
   </si>
   <si>
-    <t>at before</t>
-  </si>
-  <si>
-    <t>at after</t>
-  </si>
-  <si>
-    <t>at runn with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at parameter </t>
-  </si>
-  <si>
-    <t>at ignore</t>
-  </si>
-  <si>
-    <t>at Rule (this is a error collector)</t>
-  </si>
-  <si>
     <t>Initialise Webdriver class @Before Annotation.</t>
   </si>
   <si>
@@ -202,6 +157,70 @@
   </si>
   <si>
     <t>Batch run testcases : Create a class FirstSuiteRunner</t>
+  </si>
+  <si>
+    <t>This project is a part of online course</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Cyclos.org is an Open source online banking application. This site has three user interface as demo user, demoUSer2, demoUser3</t>
+  </si>
+  <si>
+    <t>Author:</t>
+  </si>
+  <si>
+    <t>Implement simple and reusable Framework</t>
+  </si>
+  <si>
+    <t>one set of Test Cases to run in Chrome, Firefox and I.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run mode of the tests are controlled through Excel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automate few test cases through Seleniumebdriver </t>
+  </si>
+  <si>
+    <t>Compile tests to run through Ant/cmd</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Register to Cyclos as NewUser</t>
+  </si>
+  <si>
+    <t>Register to Cyclos as Existing user and validate the error message</t>
+  </si>
+  <si>
+    <t>Login to Cyclos</t>
+  </si>
+  <si>
+    <t>Banking: Transfer funds from user1 to user2</t>
+  </si>
+  <si>
+    <t>Parameterise the login test with different data @RunWith(Parameterized.class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Parameter test : login to cyclos as demo,demo2,demo3 user and Take screenshots </t>
+  </si>
+  <si>
+    <t>Validate Facebook,youTube,Linkedin links on the landing page: TakescreenShots
+Validate Change password link on the landing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameterise the Search user test </t>
+  </si>
+  <si>
+    <t>search for existing user with different data: validate the result</t>
   </si>
 </sst>
 </file>
@@ -269,18 +288,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FF03F7BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF03F7BD"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -435,6 +454,15 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -447,7 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -460,28 +487,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -769,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,231 +815,247 @@
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:K2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="login"/>
+    <hyperlink ref="B3" r:id="rId1" location="login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1016,268 +1064,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A18:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
-        <v>50</v>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G28"/>
+  <autoFilter ref="C1:G33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1286,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
